--- a/analysis/forcing.xlsx
+++ b/analysis/forcing.xlsx
@@ -36,10 +36,10 @@
     <t>SSP2-Ref-Diff</t>
   </si>
   <si>
-    <t>SSP2-Ref</t>
+    <t>SSP2-Ref-Harmonized</t>
   </si>
   <si>
-    <t>SSP2-45</t>
+    <t>SSP2-45-Harmonized</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
